--- a/source_data/berber_1_v2.xlsx
+++ b/source_data/berber_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB641BB-74E0-5B4A-A8F8-B4154255CF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7D418-A012-8040-855F-21A6240DE6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59240" yWindow="500" windowWidth="32220" windowHeight="23720" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>Profile</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>-</t>
@@ -235,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -262,6 +259,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,6 +630,9 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F2" s="8">
         <v>1</v>
       </c>
@@ -649,10 +652,10 @@
         <v>43</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -662,6 +665,9 @@
       <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
@@ -694,6 +700,9 @@
       <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
@@ -726,8 +735,32 @@
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -816,6 +849,12 @@
       <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
@@ -940,7 +979,7 @@
       <c r="D15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F1:N1"/>
     <mergeCell ref="H2:I2"/>
@@ -952,6 +991,9 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source_data/berber_1_v2.xlsx
+++ b/source_data/berber_1_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7D418-A012-8040-855F-21A6240DE6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8416446-549C-1048-AE46-8ECAE65F15A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -581,7 +581,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,6 +810,9 @@
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>

--- a/source_data/berber_1_v2.xlsx
+++ b/source_data/berber_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8416446-549C-1048-AE46-8ECAE65F15A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB10D79-18B1-D940-B478-EDBBF571F947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="13220" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -263,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,21 +904,35 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
@@ -924,14 +941,18 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
@@ -961,25 +982,37 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/source_data/berber_1_v2.xlsx
+++ b/source_data/berber_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB10D79-18B1-D940-B478-EDBBF571F947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3D57FB-8FF1-494C-8DB5-1EC79211C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="13220" yWindow="500" windowWidth="41380" windowHeight="23400" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,6 +255,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -263,9 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,6 +581,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -600,10 +603,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="7"/>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -611,24 +614,24 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -636,18 +639,18 @@
       <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9">
         <v>3</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
@@ -662,8 +665,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
         <v>40</v>
@@ -671,18 +674,18 @@
       <c r="E3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
@@ -697,8 +700,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
         <v>29</v>
@@ -706,18 +709,18 @@
       <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
@@ -732,8 +735,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
         <v>7</v>
@@ -741,18 +744,18 @@
       <c r="E5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="11"/>
       <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
@@ -767,8 +770,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
         <v>32</v>
@@ -808,8 +811,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -849,8 +852,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
         <v>14</v>
@@ -904,16 +907,16 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -921,16 +924,16 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -941,7 +944,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -950,7 +953,7 @@
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -982,35 +985,35 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1032,5 +1035,6 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/source_data/berber_1_v2.xlsx
+++ b/source_data/berber_1_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3D57FB-8FF1-494C-8DB5-1EC79211C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8F309-4A1B-EC40-91E6-7899A951D716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13220" yWindow="500" windowWidth="41380" windowHeight="23400" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -144,15 +144,6 @@
   </si>
   <si>
     <t>Day 46</t>
-  </si>
-  <si>
-    <t>A: Day 1</t>
-  </si>
-  <si>
-    <t>A: Day 16</t>
-  </si>
-  <si>
-    <t>P4: +30 Days</t>
   </si>
   <si>
     <t>P1: +14 Days</t>
@@ -587,7 +578,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -655,13 +646,13 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -669,10 +660,10 @@
       <c r="B3" s="10"/>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>9</v>
@@ -690,13 +681,13 @@
         <v>35</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -707,7 +698,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>30</v>
@@ -728,10 +719,10 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -742,31 +733,31 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -780,34 +771,34 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -818,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -848,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -859,10 +850,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
@@ -903,21 +894,21 @@
         <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
@@ -925,16 +916,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -945,7 +936,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
@@ -954,7 +945,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
@@ -986,35 +977,35 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/source_data/berber_1_v2.xlsx
+++ b/source_data/berber_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8F309-4A1B-EC40-91E6-7899A951D716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F18FA7-0434-1B42-A598-DFA7CF60EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="500" windowWidth="41380" windowHeight="23400" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="-38020" yWindow="500" windowWidth="36400" windowHeight="21100" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,14 +578,15 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
     <col min="5" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.83203125" style="1"/>

--- a/source_data/berber_1_v2.xlsx
+++ b/source_data/berber_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F18FA7-0434-1B42-A598-DFA7CF60EF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436A179-070E-FD49-9784-2CCF21CCA239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38020" yWindow="500" windowWidth="36400" windowHeight="21100" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="35640" yWindow="500" windowWidth="36400" windowHeight="21100" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="46">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -578,7 +578,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,6 +914,36 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -934,6 +964,33 @@
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -966,6 +1023,9 @@
       <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="L12" s="1" t="s">
         <v>25</v>
       </c>
@@ -975,6 +1035,9 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="O12" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -986,6 +1049,39 @@
       <c r="D13" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -997,6 +1093,39 @@
       <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -1006,6 +1135,39 @@
         <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>45</v>
       </c>
     </row>

--- a/source_data/berber_1_v2.xlsx
+++ b/source_data/berber_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436A179-070E-FD49-9784-2CCF21CCA239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0437B4-D495-E240-8EE4-2BF99D73FEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35640" yWindow="500" windowWidth="36400" windowHeight="21100" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="45">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -101,18 +101,6 @@
     <t>Physical Examination</t>
   </si>
   <si>
-    <t>PE 1</t>
-  </si>
-  <si>
-    <t>PE 2</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -122,9 +110,6 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>BCs</t>
-  </si>
-  <si>
     <t>Cycle Period</t>
   </si>
   <si>
@@ -170,10 +155,22 @@
     <t>P: +12 weeks</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>BC:PE 1</t>
+  </si>
+  <si>
+    <t>BC:PE 2</t>
+  </si>
+  <si>
+    <t>BC:Weight</t>
+  </si>
+  <si>
+    <t>BC:Height</t>
+  </si>
+  <si>
+    <t>BC/Profile</t>
   </si>
 </sst>
 </file>
@@ -223,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -242,9 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -575,286 +569,281 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="20.1640625" style="1" customWidth="1"/>
-    <col min="14" max="18" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="1" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
         <v>3</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>
@@ -874,319 +863,304 @@
       <c r="L8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>15</v>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>45</v>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A1:B8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/source_data/berber_1_v2.xlsx
+++ b/source_data/berber_1_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0437B4-D495-E240-8EE4-2BF99D73FEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EE97D5-6F69-EA4F-9B6B-BA6BE1B46BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
